--- a/biology/Botanique/Plantago_aschersonii/Plantago_aschersonii.xlsx
+++ b/biology/Botanique/Plantago_aschersonii/Plantago_aschersonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantago aschersonii est une plante de la famille des Plantaginacées. Cette espèce est parfois intégrée à Plantago coronopus,  il s'en différencie toutefois par ses feuilles lancéolées pubescentes.
 Le nom de l'espèce a été attribué en l'honneur du botaniste allemand Paul Ascherson (1834-1913).
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plantago ceratophylla Hoffmanns. &amp; Link (1809)
 Plantago columnae Gouan (1773)
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont lancéolées et pubescentes.
 </t>
@@ -577,9 +593,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrique du Nord, Canaries[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrique du Nord, Canaries
 </t>
         </is>
       </c>
